--- a/frontend-cemos/public/assets/content/direito/6-protocolo-II/script/fc1.xlsx
+++ b/frontend-cemos/public/assets/content/direito/6-protocolo-II/script/fc1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Em que data e local a Carta das Nações Unidas foi assinada?</t>
+          <t>Qual é o campo de aplicação material do Protocolo II?</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Em São Francisco, a 26 de junho de 1945.</t>
+          <t>Aplica-se a conflitos armados no território de uma Alta Parte Contratante entre suas Forças Armadas e grupos armados organizados que, sob um comando responsável, exerçam controle territorial suficiente para realizar operações contínuas e aplicar o Protocolo.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -489,24 +489,24 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qual é o primeiro propósito das Nações Unidas, conforme o Artigo 1?</t>
+          <t>Quais situações internas não são consideradas conflitos armados pelo Protocolo II?</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Manter a paz e a segurança internacionais e tomar, coletivamente, medidas efetivas para evitar ameaças à paz e reprimir atos de agressão.</t>
+          <t>Situações de tensões internas e distúrbios internos, como motins, atos esporádicos e isolados de violência e outros atos análogos.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -517,24 +517,24 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qual é o objetivo da cooperação internacional que as Nações Unidas buscam resolver?</t>
+          <t>Qual o princípio fundamental em relação à soberania estatal que o Protocolo II não pode atingir?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Problemas internacionais de caráter econômico, social, cultural ou humanitário, e promover o respeito aos direitos humanos e às liberdades fundamentais.</t>
+          <t>Não pode ser invocado para atingir a soberania de um Estado, a responsabilidade do Governo de manter a lei e a ordem, nem justificar a intervenção no conflito ou nos assuntos internos ou externos da Parte contratante.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -545,24 +545,24 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qual é o princípio fundamental que rege a Organização e seus Membros, conforme o Artigo 2 (1)?</t>
+          <t>Quais emblemas devem ser ostentados pelo pessoal sanitário e religioso, sob o Protocolo II?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A Organização é baseada no princípio da igualdade de todos os seus Membros.</t>
+          <t>O emblema distintivo da Cruz Vermelha, do Crescente Vermelho ou do Leão e Sol Vermelhos sobre fundo branco.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -573,24 +573,24 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qual é a obrigação dos Membros da ONU referente ao uso da força em suas relações internacionais?</t>
+          <t>Que proteção geral é garantida à população civil?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Deverão evitar a ameaça ou o uso da força contra a integridade territorial ou a dependência política de qualquer Estado.</t>
+          <t>Proteção geral contra os perigos procedentes de operações militares, sendo proibidos ataques ou ameaças de violência cuja finalidade principal seja aterrorizá-la.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -601,24 +601,24 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Em que situação o princípio de não intervenção da Carta nas jurisdições internas dos Estados não se aplica?</t>
+          <t>Em que condições os civis individualmente perdem a proteção conferida pelo Título IV do Protocolo II?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Não prejudicará a aplicação das medidas coercitivas constantes do Capítulo VII.</t>
+          <t>Perdem a proteção se participarem diretamente das hostilidades e enquanto durar essa participação.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -629,24 +629,24 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>De quantos membros é composto o Conselho de Segurança das Nações Unidas?</t>
+          <t>O que é proibido utilizar contra os civis como método de combate?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>De quinze Membros das Nações Unidas.</t>
+          <t>A fome.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -657,24 +657,24 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quais são os cinco membros permanentes do Conselho de Segurança, segundo o Artigo 23?</t>
+          <t>Quais bens indispensáveis à sobrevivência da população civil é proibido atacar ou inutilizar?</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>A República da China, a França, a União das Repúblicas Socialistas Soviéticas, o Reino Unido da Grã-Bretanha e Irlanda do Norte e os Estados Unidos da América.</t>
+          <t>Gêneros alimentícios, zonas agrícolas que os produzem, colheitas, gado, instalações e reservas de água potável e obras de irrigação.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -685,24 +685,24 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Por quanto tempo os membros não permanentes do Conselho de Segurança são eleitos?</t>
+          <t>Quando a proteção das represas, diques e centrais nucleares de energia elétrica é mantida, mesmo que sejam objetivos militares?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Por um período de dois anos.</t>
+          <t>Quando os ataques possam acarretar a liberação de forças perigosas e causar perdas importantes na população civil.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -713,679 +713,175 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Qual é a principal responsabilidade conferida ao Conselho de Segurança pelos Membros da ONU?</t>
+          <t>Quais são as únicas razões que justificam a ordem de deslocamento forçado da população civil?</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>A manutenção da paz e da segurança internacionais.</t>
+          <t>A segurança dos civis ou razões militares imperiosas.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>No cumprimento de seus deveres, o Conselho de Segurança agirá de acordo com quais elementos da Organização?</t>
+          <t>O que deve ser garantido à população civil se o deslocamento forçado for efetuado?</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>De acordo com os Propósitos e Princípios das Nações Unidas.</t>
+          <t>Acolhimento em condições satisfatórias de alojamento, salubridade, higiene, segurança e alimentação.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>O que os Membros das Nações Unidas concordam em fazer em relação às decisões do Conselho de Segurança, conforme o Artigo 25?</t>
+          <t>Sob quais condições ações de socorro podem ser organizadas em favor da população civil que sofre privações extremas?</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Concordam em aceitar e executar as decisões do Conselho de Segurança, de acordo com a presente Carta.</t>
+          <t>Com o consentimento da Alta Parte Contratante interessada, sendo de caráter exclusivamente humanitário, imparcial e realizadas sem distinção desfavorável.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Pág 5</t>
+          <t>Pág 4</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quantos votos cada membro do Conselho de Segurança possui?</t>
+          <t>Qual o dever das Partes em relação à divulgação do Protocolo II?</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Um voto.</t>
+          <t>O presente Protocolo deverá ser divulgado o mais amplamente possível.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Quantos votos afirmativos são necessários para tomar decisões do Conselho de Segurança em questões processuais?</t>
+          <t>Quem podia assinar o Protocolo II após a Ata Final?</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nove Membros.</t>
+          <t>As Partes nas Convenções.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Qual a condição de voto para que as decisões do Conselho de Segurança sejam tomadas em "todos os outros assuntos" (não processuais)?</t>
+          <t>Por quanto tempo o Protocolo II permaneceu aberto para assinatura?</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>O voto afirmativo de nove membros, inclusive os votos afirmativos de todos os membros permanentes.</t>
+          <t>Durante um período de doze meses após a assinatura da Ata Final.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pág 7</t>
+          <t>Pág 5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Quais são alguns dos meios pacíficos que as partes em uma controvérsia devem buscar para uma solução, conforme o Capítulo VI?</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Negociação, inquérito, mediação, conciliação, arbitragem ou solução judicial.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Pág 8</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>O que o Conselho de Segurança pode fazer para determinar se uma controvérsia é uma ameaça à paz?</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Poderá investigar sobre qualquer controvérsia ou situação suscetível de provocar atritos entre as Nações.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Pág 8</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Qual é a finalidade do Artigo 33, que trata da solução pacífica de controvérsias?</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Assegurar que as controvérsias não constituam uma ameaça à paz e à segurança internacionais.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Pág 8</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>O que o Conselho de Segurança determina em primeiro lugar sob o Capítulo VII, conforme o Artigo 39?</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>A existência de qualquer ameaça à paz, ruptura da paz ou ato de agressão.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Pág 10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>O que o Conselho de Segurança pode convidar as partes interessadas a aceitar, conforme o Artigo 40, a fim de evitar que a situação se agrave?</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Medidas provisórias que lhe pareçam necessárias ou aconselháveis.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Pág 10</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Quais tipos de sanções o Conselho de Segurança pode impor sob o Artigo 41, sem o emprego de forças armadas?</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Interrupção completa ou parcial das relações econômicas, dos meios de comunicação (ferroviários, marítimos, aéreos, etc.) e o rompimento das relações diplomáticas.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Pág 10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Quando o Conselho de Segurança pode levar a efeito uma ação militar (forças aéreas, navais ou terrestres)?</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>No caso de considerar que as medidas previstas no Artigo 41 seriam ou demonstraram que são inadequadas.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Pág 11</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>O que as ações militares sob o Artigo 42 podem compreender?</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Demonstrações, bloqueios e outras operações, por parte das forças aéreas, navais ou terrestres dos Membros das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Pág 11</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Qual é o compromisso dos Membros das Nações Unidas para a manutenção da paz, conforme o Artigo 43?</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Proporcionar ao Conselho de Segurança, a seu pedido e de conformidade com acordos especiais, forças armadas, assistência e facilidades, inclusive direitos de passagem.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Pág 11</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>O que deve ser determinado no acordo ou acordos especiais entre o Conselho de Segurança e os Membros?</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>O número e tipo das forças, seu grau de preparação e sua localização geral, bem como a natureza das facilidades e da assistência.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Pág 13</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Quem o Conselho deve convidar a participar das decisões, antes de solicitar forças armadas a um Membro nele não representado?</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>O referido Membro, se este assim o desejar.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Pág 13</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Qual a finalidade de os Membros da ONU manterem contingentes das forças aéreas nacionais imediatamente utilizáveis, conforme o Artigo 45?</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Habilitar as Nações Unidas a tomarem medidas militares urgentes.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Pág 13</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Qual é o papel da Comissão de Estado Maior, conforme o Artigo 47?</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Orientar e assistir o Conselho de Segurança em todas as questões relativas às exigências militares, utilização e comando das forças, regulamentação de armamentos e desarmamento.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Pág 14</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Quem compõe a Comissão de Estado Maior?</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Os Chefes de Estado Maior dos Membros Permanentes do Conselho de Segurança ou de seus representantes.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Pág 14</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Quem levará a efeito a ação necessária ao cumprimento das decisões do Conselho de Segurança para a manutenção da paz?</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Todos os Membros das Nações Unidas ou alguns deles, conforme seja determinado pelo Conselho de Segurança.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Pág 15</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>O que os Membros das Nações Unidas devem fazer para a execução das medidas determinadas pelo Conselho de Segurança, conforme o Artigo 49?</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Prestar assistência mútua.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Pág 15</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>O que a Carta da ONU preserva em relação ao uso da força, conforme o Artigo 51?</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>O direito inerente de legítima defesa individual ou coletiva no caso de ocorrer um ataque armado contra um Membro das Nações Unidas.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Pág 16</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Até quando o direito de legítima defesa individual ou coletiva é preservado?</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Até que o Conselho de Segurança tenha tomado as medidas necessárias para a manutenção da paz e da segurança internacionais.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Pág 16</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Carta das Nações Unidas</t>
+          <t>Protocolo II</t>
         </is>
       </c>
     </row>
